--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2409225.914002039</v>
+        <v>2423711.059330172</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1644339.104220886</v>
+        <v>1644339.104220887</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3429765.889547251</v>
+        <v>3429765.889547249</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8838596.774727145</v>
+        <v>8838596.774727143</v>
       </c>
     </row>
     <row r="11">
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.09198093152767</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,10 +715,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>51.51867270495129</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>34.67861244220902</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -791,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>165.7447985797152</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>64.13863269867674</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>58.39471844666277</v>
+      </c>
+      <c r="F5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>241.0142888776591</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -992,7 +992,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>7.83710273534405</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>115.5973888991589</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>114.0512913036181</v>
       </c>
       <c r="H8" t="n">
-        <v>60.28241438224702</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1186,7 +1186,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,10 +1217,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>88.61775520402705</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>183.8842973311964</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>325.9248250945688</v>
+        <v>412.6377361785768</v>
       </c>
       <c r="H11" t="n">
         <v>312.1818571777401</v>
@@ -1426,10 +1426,10 @@
         <v>211.4298062133477</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1324528009118</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>137.4887585663564</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1533,16 +1533,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>99.12379599716344</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.7955515048264</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>123.5426080674811</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>222.8378522354886</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>184.9440332904616</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>148.2913516294244</v>
+        <v>35.02334563249866</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U14" t="n">
         <v>251.1324528009118</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>82.12987716282647</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I15" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S15" t="n">
         <v>145.1976775731243</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>123.5426080674811</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>203.1835508059426</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>203.8678643784531</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>183.5268561034852</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>224.9980793607093</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>412.6377361785768</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>312.1818571777401</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>148.2913516294244</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.4298062133477</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1324528009118</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>248.6365114616299</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I18" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S18" t="n">
         <v>145.1976775731243</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7955515048264</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.5987321360535</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>203.1835508059426</v>
+        <v>55.17889223093231</v>
       </c>
       <c r="T19" t="n">
-        <v>15.68992124819525</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>412.6377361785768</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>312.1818571777401</v>
       </c>
       <c r="I20" t="n">
         <v>107.7334255427443</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>151.3832750442443</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1324528009118</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>90.33387066741697</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2180,7 +2180,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I21" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S21" t="n">
         <v>145.1976775731243</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>52.30708907738373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>52.30708907738353</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2538242008382</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>258.0725139250114</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>277.1910834817378</v>
       </c>
       <c r="G23" t="n">
         <v>412.6377361785768</v>
@@ -2338,7 +2338,7 @@
         <v>312.1818571777401</v>
       </c>
       <c r="I23" t="n">
-        <v>107.7334255427443</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>148.2913516294244</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>211.4298062133477</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.1324528009118</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2417,7 +2417,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I24" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S24" t="n">
         <v>145.1976775731243</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.7955515048264</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>151.5987321360535</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>119.5006991107501</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>52.30708907738353</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2538242008382</v>
+        <v>97.03629013537979</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>412.6377361785768</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>312.1818571777401</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1324528009118</v>
+        <v>65.76127726838983</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>280.6054108342664</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I27" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S27" t="n">
         <v>145.1976775731243</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7955515048264</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,16 +2769,16 @@
         <v>222.8378522354886</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2538242008382</v>
+        <v>162.3351229934572</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>55.17889223093209</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>412.6377361785768</v>
+        <v>82.38819004006864</v>
       </c>
       <c r="H29" t="n">
         <v>312.1818571777401</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>107.7334255427443</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>148.2913516294244</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U29" t="n">
         <v>251.1324528009118</v>
       </c>
       <c r="V29" t="n">
-        <v>147.8844604972375</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2891,7 +2891,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I30" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S30" t="n">
         <v>145.1976775731243</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7955515048264</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>203.1835508059426</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>222.8378522354886</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>199.0625085733814</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>118.3345608663637</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3088,10 +3088,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>198.0672962101615</v>
       </c>
       <c r="W32" t="n">
-        <v>219.5560064574387</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3128,7 +3128,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I33" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S33" t="n">
         <v>145.1976775731243</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>142.6389483268571</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>151.5987321360535</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>119.5006991107501</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,19 +3240,19 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>222.8378522354886</v>
+        <v>52.30708907738353</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,13 +3271,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>45.59310785776294</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>412.6377361785768</v>
@@ -3286,7 +3286,7 @@
         <v>312.1818571777401</v>
       </c>
       <c r="I35" t="n">
-        <v>107.7334255427443</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>148.2913516294244</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U35" t="n">
         <v>251.1324528009118</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>184.359925145947</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I36" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S36" t="n">
         <v>145.1976775731243</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>52.30708907738374</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>203.1835508059426</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V37" t="n">
-        <v>222.0611744015121</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>412.6377361785768</v>
       </c>
       <c r="H38" t="n">
-        <v>182.4968949177652</v>
+        <v>312.1818571777401</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>198.0672962101615</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3602,7 +3602,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I39" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S39" t="n">
         <v>145.1976775731243</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>123.5426080674811</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>193.1398652552904</v>
+        <v>154.4880794130098</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>247.2072915901985</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>312.1818571777401</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>107.7334255427443</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>211.4298062133477</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.1324528009118</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3805,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>241.4150356237576</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I42" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S42" t="n">
         <v>145.1976775731243</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>105.7749789292971</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.7955515048264</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>52.30708907738353</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>412.6377361785768</v>
       </c>
       <c r="H44" t="n">
-        <v>312.1818571777401</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>107.7334255427443</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>148.2913516294244</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>34.20554328834151</v>
       </c>
       <c r="V44" t="n">
-        <v>90.33387066741562</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4076,7 +4076,7 @@
         <v>98.46423839124708</v>
       </c>
       <c r="I45" t="n">
-        <v>40.30309702707008</v>
+        <v>40.30309702707007</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>11.626866875009</v>
+        <v>11.62686687500897</v>
       </c>
       <c r="S45" t="n">
         <v>145.1976775731243</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>81.60688016572311</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>158.7289330962842</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="C2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="D2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4363,19 +4363,19 @@
         <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>577.2332497330343</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="W2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="X2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.7844730889342</v>
+        <v>281.7454097505996</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353.7257600495809</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="C3" t="n">
-        <v>179.2727307684539</v>
+        <v>726.8416594126254</v>
       </c>
       <c r="D3" t="n">
-        <v>179.2727307684539</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
         <v>20.03527576299844</v>
@@ -4415,19 +4415,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4439,22 +4439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>796.6381670462774</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>796.6381670462774</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>561.4860588145348</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W3" t="n">
-        <v>561.4860588145348</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X3" t="n">
-        <v>561.4860588145348</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y3" t="n">
-        <v>353.7257600495809</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C5" t="n">
-        <v>737.7960950516754</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>494.3473184075753</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E5" t="n">
-        <v>494.3473184075753</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F5" t="n">
-        <v>487.4018176583718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>577.9072497513741</v>
+        <v>795.8418184905681</v>
       </c>
       <c r="C6" t="n">
-        <v>577.9072497513741</v>
+        <v>621.3887892094411</v>
       </c>
       <c r="D6" t="n">
-        <v>577.9072497513741</v>
+        <v>472.4543795481899</v>
       </c>
       <c r="E6" t="n">
-        <v>418.6697947459187</v>
+        <v>313.2169245427344</v>
       </c>
       <c r="F6" t="n">
-        <v>272.1352367728036</v>
+        <v>166.6823665696193</v>
       </c>
       <c r="G6" t="n">
-        <v>133.4044113554191</v>
+        <v>27.95154115223485</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4655,7 +4655,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>746.1225867714422</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4752,19 +4752,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
         <v>41.77557929797318</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.0940480307835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C8" t="n">
-        <v>358.0940480307835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E8" t="n">
-        <v>114.6452713866835</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F8" t="n">
-        <v>107.69977063748</v>
+        <v>359.156365563381</v>
       </c>
       <c r="G8" t="n">
-        <v>92.24246001613146</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>601.5428246748836</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X8" t="n">
-        <v>601.5428246748836</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y8" t="n">
-        <v>358.0940480307835</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>194.4883050441255</v>
+        <v>706.3289344460964</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>531.8759051649694</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,16 +4886,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>781.4136778972854</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="W9" t="n">
-        <v>778.3154410346802</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="X9" t="n">
-        <v>570.4639408291474</v>
+        <v>874.5442714661644</v>
       </c>
       <c r="Y9" t="n">
-        <v>362.7036420641935</v>
+        <v>874.5442714661644</v>
       </c>
     </row>
     <row r="10">
@@ -4947,10 +4947,10 @@
         <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
         <v>19.28114311021272</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1588.924308426002</v>
+        <v>2034.778806107508</v>
       </c>
       <c r="C11" t="n">
-        <v>1219.961791485591</v>
+        <v>1665.816289167097</v>
       </c>
       <c r="D11" t="n">
-        <v>1219.961791485591</v>
+        <v>1307.550590560346</v>
       </c>
       <c r="E11" t="n">
-        <v>834.1735388873462</v>
+        <v>921.7623379621018</v>
       </c>
       <c r="F11" t="n">
-        <v>834.1735388873462</v>
+        <v>921.7623379621018</v>
       </c>
       <c r="G11" t="n">
         <v>504.9565438423272</v>
@@ -5038,28 +5038,28 @@
         <v>189.6213345718827</v>
       </c>
       <c r="I11" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J11" t="n">
-        <v>292.8966667652713</v>
+        <v>292.8966667652712</v>
       </c>
       <c r="K11" t="n">
-        <v>731.5198548037617</v>
+        <v>731.519854803762</v>
       </c>
       <c r="L11" t="n">
-        <v>1327.947332823145</v>
+        <v>1327.947332823146</v>
       </c>
       <c r="M11" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N11" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O11" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P11" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q11" t="n">
         <v>4022.623720931972</v>
@@ -5074,19 +5074,19 @@
         <v>3676.629925584046</v>
       </c>
       <c r="U11" t="n">
-        <v>3422.960781340701</v>
+        <v>3676.629925584046</v>
       </c>
       <c r="V11" t="n">
-        <v>3091.89789399713</v>
+        <v>3537.752391678636</v>
       </c>
       <c r="W11" t="n">
-        <v>2739.129238727015</v>
+        <v>3184.983736408522</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.663480465936</v>
+        <v>2811.517978147442</v>
       </c>
       <c r="Y11" t="n">
-        <v>1975.524148490124</v>
+        <v>2421.37864617163</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G12" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H12" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I12" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J12" t="n">
-        <v>88.59969273694061</v>
+        <v>88.59969273694063</v>
       </c>
       <c r="K12" t="n">
-        <v>180.0859600453775</v>
+        <v>366.5894257716574</v>
       </c>
       <c r="L12" t="n">
-        <v>490.7161773794627</v>
+        <v>903.0584852800521</v>
       </c>
       <c r="M12" t="n">
-        <v>1168.729487855239</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N12" t="n">
-        <v>1880.394806555195</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O12" t="n">
-        <v>2465.013859809172</v>
+        <v>1941.759203997143</v>
       </c>
       <c r="P12" t="n">
-        <v>2601.940982340721</v>
+        <v>2393.96446748223</v>
       </c>
       <c r="Q12" t="n">
         <v>2643.55394115039</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>617.0028185041322</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="C13" t="n">
-        <v>617.0028185041322</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="D13" t="n">
-        <v>516.8777720423509</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="E13" t="n">
-        <v>516.8777720423509</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="F13" t="n">
-        <v>369.9878245444405</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="G13" t="n">
         <v>201.5074694890603</v>
@@ -5196,10 +5196,10 @@
         <v>201.5074694890603</v>
       </c>
       <c r="I13" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J13" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="K13" t="n">
         <v>196.2510074266864</v>
@@ -5223,28 +5223,28 @@
         <v>1194.871622233432</v>
       </c>
       <c r="R13" t="n">
-        <v>1070.081109033956</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="S13" t="n">
-        <v>1070.081109033956</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="T13" t="n">
-        <v>844.9923694021495</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U13" t="n">
-        <v>844.9923694021495</v>
+        <v>905.7263452628883</v>
       </c>
       <c r="V13" t="n">
-        <v>844.9923694021495</v>
+        <v>718.9141904240382</v>
       </c>
       <c r="W13" t="n">
-        <v>844.9923694021495</v>
+        <v>429.4970203870777</v>
       </c>
       <c r="X13" t="n">
-        <v>617.0028185041322</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="Y13" t="n">
-        <v>617.0028185041322</v>
+        <v>201.5074694890603</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2445.764710897116</v>
+        <v>2076.802193956704</v>
       </c>
       <c r="C14" t="n">
         <v>2076.802193956704</v>
@@ -5275,19 +5275,19 @@
         <v>189.6213345718827</v>
       </c>
       <c r="I14" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J14" t="n">
-        <v>292.8966667652712</v>
+        <v>292.8966667652713</v>
       </c>
       <c r="K14" t="n">
-        <v>731.5198548037616</v>
+        <v>731.5198548037619</v>
       </c>
       <c r="L14" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M14" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N14" t="n">
         <v>2684.816511547416</v>
@@ -5296,34 +5296,34 @@
         <v>3278.543978195641</v>
       </c>
       <c r="P14" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q14" t="n">
         <v>4022.623720931972</v>
       </c>
       <c r="R14" t="n">
-        <v>4039.984630475734</v>
+        <v>4039.984630475735</v>
       </c>
       <c r="S14" t="n">
-        <v>3890.195386405609</v>
+        <v>4004.607513675232</v>
       </c>
       <c r="T14" t="n">
-        <v>3890.195386405609</v>
+        <v>3791.042052853668</v>
       </c>
       <c r="U14" t="n">
-        <v>3636.526242162263</v>
+        <v>3537.372908610323</v>
       </c>
       <c r="V14" t="n">
-        <v>3305.463354818693</v>
+        <v>3206.310021266752</v>
       </c>
       <c r="W14" t="n">
-        <v>3222.50388293705</v>
+        <v>2853.541365996638</v>
       </c>
       <c r="X14" t="n">
-        <v>3222.50388293705</v>
+        <v>2853.541365996638</v>
       </c>
       <c r="Y14" t="n">
-        <v>2832.364550961238</v>
+        <v>2463.402034020826</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>121.5098916267572</v>
       </c>
       <c r="I15" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J15" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694063</v>
       </c>
       <c r="K15" t="n">
-        <v>321.3790597214926</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L15" t="n">
-        <v>490.7161773794627</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M15" t="n">
-        <v>1168.729487855239</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N15" t="n">
-        <v>1880.394806555195</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O15" t="n">
-        <v>2465.013859809172</v>
+        <v>1941.759203997143</v>
       </c>
       <c r="P15" t="n">
-        <v>2601.940982340721</v>
+        <v>2393.96446748223</v>
       </c>
       <c r="Q15" t="n">
         <v>2643.55394115039</v>
@@ -5427,31 +5427,31 @@
         <v>249.2800476648949</v>
       </c>
       <c r="G16" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="H16" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I16" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J16" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="K16" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L16" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991341</v>
       </c>
       <c r="M16" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N16" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O16" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P16" t="n">
         <v>1181.072271414339</v>
@@ -5460,28 +5460,28 @@
         <v>1194.871622233432</v>
       </c>
       <c r="R16" t="n">
-        <v>1070.081109033956</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="S16" t="n">
-        <v>864.8451991289631</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="T16" t="n">
-        <v>658.9180633931519</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U16" t="n">
-        <v>658.9180633931519</v>
+        <v>905.7263452628883</v>
       </c>
       <c r="V16" t="n">
-        <v>658.9180633931519</v>
+        <v>720.3456825320952</v>
       </c>
       <c r="W16" t="n">
-        <v>658.9180633931519</v>
+        <v>430.9285124951347</v>
       </c>
       <c r="X16" t="n">
-        <v>430.9285124951346</v>
+        <v>430.9285124951347</v>
       </c>
       <c r="Y16" t="n">
-        <v>430.9285124951346</v>
+        <v>430.9285124951347</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2021.607859664303</v>
+        <v>2205.948157561037</v>
       </c>
       <c r="C17" t="n">
-        <v>1652.645342723892</v>
+        <v>1836.985640620625</v>
       </c>
       <c r="D17" t="n">
-        <v>1294.379644117141</v>
+        <v>1609.714853387586</v>
       </c>
       <c r="E17" t="n">
-        <v>908.5913915188969</v>
+        <v>1223.926600789341</v>
       </c>
       <c r="F17" t="n">
-        <v>497.6054867292893</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="G17" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1349018799592</v>
       </c>
       <c r="H17" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I17" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J17" t="n">
         <v>292.8966667652712</v>
       </c>
       <c r="K17" t="n">
-        <v>731.5198548037616</v>
+        <v>731.519854803762</v>
       </c>
       <c r="L17" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M17" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N17" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O17" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P17" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q17" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R17" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="S17" t="n">
-        <v>3890.195386405609</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="T17" t="n">
-        <v>3676.629925584046</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="U17" t="n">
-        <v>3422.960781340701</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="V17" t="n">
-        <v>3422.960781340701</v>
+        <v>3708.921743132165</v>
       </c>
       <c r="W17" t="n">
-        <v>3171.812789965317</v>
+        <v>3356.153087862051</v>
       </c>
       <c r="X17" t="n">
-        <v>2798.347031704237</v>
+        <v>2982.687329600971</v>
       </c>
       <c r="Y17" t="n">
-        <v>2408.207699728425</v>
+        <v>2592.547997625159</v>
       </c>
     </row>
     <row r="18">
@@ -5585,28 +5585,28 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G18" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H18" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I18" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J18" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694064</v>
       </c>
       <c r="K18" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.20572918323</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M18" t="n">
-        <v>1320.171026546506</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.287394646345</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O18" t="n">
         <v>1941.759203997143</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.3462630534619</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="C19" t="n">
-        <v>402.4100801255551</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="D19" t="n">
-        <v>402.4100801255551</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="E19" t="n">
-        <v>402.4100801255551</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="F19" t="n">
-        <v>402.4100801255551</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="G19" t="n">
-        <v>233.9297250701748</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="H19" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I19" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J19" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="K19" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L19" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991342</v>
       </c>
       <c r="M19" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N19" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O19" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P19" t="n">
         <v>1181.072271414339</v>
@@ -5700,25 +5700,25 @@
         <v>1194.871622233432</v>
       </c>
       <c r="S19" t="n">
-        <v>989.6357123284391</v>
+        <v>1139.135367454712</v>
       </c>
       <c r="T19" t="n">
-        <v>973.7873070272318</v>
+        <v>914.0466278229057</v>
       </c>
       <c r="U19" t="n">
-        <v>973.7873070272318</v>
+        <v>624.9013508523622</v>
       </c>
       <c r="V19" t="n">
-        <v>973.7873070272318</v>
+        <v>370.2168626464753</v>
       </c>
       <c r="W19" t="n">
-        <v>973.7873070272318</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="X19" t="n">
-        <v>973.7873070272318</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="Y19" t="n">
-        <v>752.9947278837017</v>
+        <v>80.79969260951472</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2130.429501626671</v>
+        <v>2445.764710897116</v>
       </c>
       <c r="C20" t="n">
-        <v>1761.46698468626</v>
+        <v>2076.802193956704</v>
       </c>
       <c r="D20" t="n">
-        <v>1403.201286079509</v>
+        <v>1718.536495349954</v>
       </c>
       <c r="E20" t="n">
-        <v>1017.413033481265</v>
+        <v>1332.748242751709</v>
       </c>
       <c r="F20" t="n">
-        <v>606.4271286916573</v>
+        <v>921.7623379621018</v>
       </c>
       <c r="G20" t="n">
-        <v>189.6213345718827</v>
+        <v>504.9565438423272</v>
       </c>
       <c r="H20" t="n">
         <v>189.6213345718827</v>
       </c>
       <c r="I20" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J20" t="n">
         <v>292.8966667652712</v>
@@ -5761,43 +5761,43 @@
         <v>1327.947332823146</v>
       </c>
       <c r="M20" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N20" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O20" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P20" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q20" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R20" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="S20" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="T20" t="n">
-        <v>3887.072231441145</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="U20" t="n">
-        <v>3633.403087197799</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="V20" t="n">
-        <v>3633.403087197799</v>
+        <v>3948.738296468244</v>
       </c>
       <c r="W20" t="n">
-        <v>3280.634431927685</v>
+        <v>3595.969641198129</v>
       </c>
       <c r="X20" t="n">
-        <v>2907.168673666605</v>
+        <v>3222.50388293705</v>
       </c>
       <c r="Y20" t="n">
-        <v>2517.029341690793</v>
+        <v>2832.364550961238</v>
       </c>
     </row>
     <row r="21">
@@ -5822,34 +5822,34 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G21" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H21" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I21" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J21" t="n">
-        <v>213.4298177239453</v>
+        <v>213.4298177239454</v>
       </c>
       <c r="K21" t="n">
-        <v>566.7366696748351</v>
+        <v>366.5894257716573</v>
       </c>
       <c r="L21" t="n">
-        <v>736.0737873328051</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M21" t="n">
-        <v>1414.087097808581</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N21" t="n">
-        <v>2125.752416508538</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O21" t="n">
-        <v>2320.447773678552</v>
+        <v>1941.759203997143</v>
       </c>
       <c r="P21" t="n">
-        <v>2457.374896210101</v>
+        <v>2393.96446748223</v>
       </c>
       <c r="Q21" t="n">
         <v>2643.55394115039</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="C22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="D22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="E22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="F22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="G22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="H22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J22" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="K22" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L22" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991342</v>
       </c>
       <c r="M22" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N22" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O22" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P22" t="n">
         <v>1181.072271414339</v>
@@ -5940,22 +5940,22 @@
         <v>1194.871622233432</v>
       </c>
       <c r="T22" t="n">
-        <v>1142.036178720923</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U22" t="n">
-        <v>852.8909017503795</v>
+        <v>905.7263452628883</v>
       </c>
       <c r="V22" t="n">
-        <v>598.2064135444926</v>
+        <v>651.0418570570015</v>
       </c>
       <c r="W22" t="n">
-        <v>308.789243507532</v>
+        <v>361.6246870200409</v>
       </c>
       <c r="X22" t="n">
-        <v>80.79969260951469</v>
+        <v>133.6351361220235</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.79969260951469</v>
+        <v>133.6351361220235</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1962.390066687082</v>
+        <v>2205.948157561037</v>
       </c>
       <c r="C23" t="n">
-        <v>1593.42754974667</v>
+        <v>1836.985640620625</v>
       </c>
       <c r="D23" t="n">
-        <v>1332.748242751709</v>
+        <v>1478.719942013875</v>
       </c>
       <c r="E23" t="n">
-        <v>1332.748242751709</v>
+        <v>1092.931689415631</v>
       </c>
       <c r="F23" t="n">
-        <v>921.7623379621018</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="G23" t="n">
-        <v>504.9565438423272</v>
+        <v>396.1349018799592</v>
       </c>
       <c r="H23" t="n">
-        <v>189.6213345718827</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I23" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J23" t="n">
         <v>292.8966667652712</v>
@@ -5998,43 +5998,43 @@
         <v>1327.947332823146</v>
       </c>
       <c r="M23" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N23" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O23" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P23" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q23" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R23" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="S23" t="n">
-        <v>3890.195386405609</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="T23" t="n">
-        <v>3676.629925584046</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="U23" t="n">
-        <v>3422.960781340701</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="V23" t="n">
-        <v>3091.89789399713</v>
+        <v>3708.921743132165</v>
       </c>
       <c r="W23" t="n">
-        <v>2739.129238727015</v>
+        <v>3356.153087862051</v>
       </c>
       <c r="X23" t="n">
-        <v>2739.129238727015</v>
+        <v>2982.687329600971</v>
       </c>
       <c r="Y23" t="n">
-        <v>2348.989906751204</v>
+        <v>2592.547997625159</v>
       </c>
     </row>
     <row r="24">
@@ -6059,25 +6059,25 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G24" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H24" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I24" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J24" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694064</v>
       </c>
       <c r="K24" t="n">
-        <v>304.9160850323822</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L24" t="n">
-        <v>841.3851445407768</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M24" t="n">
-        <v>1058.350441904053</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N24" t="n">
         <v>1357.140150743167</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.79969260951469</v>
+        <v>842.1706793453433</v>
       </c>
       <c r="C25" t="n">
-        <v>80.79969260951469</v>
+        <v>673.2344964174364</v>
       </c>
       <c r="D25" t="n">
-        <v>80.79969260951469</v>
+        <v>523.1178570051006</v>
       </c>
       <c r="E25" t="n">
-        <v>80.79969260951469</v>
+        <v>523.1178570051006</v>
       </c>
       <c r="F25" t="n">
-        <v>80.79969260951469</v>
+        <v>523.1178570051006</v>
       </c>
       <c r="G25" t="n">
-        <v>80.79969260951469</v>
+        <v>354.6375019497204</v>
       </c>
       <c r="H25" t="n">
-        <v>80.79969260951469</v>
+        <v>201.5074694890603</v>
       </c>
       <c r="I25" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J25" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="K25" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L25" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991342</v>
       </c>
       <c r="M25" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N25" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O25" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P25" t="n">
         <v>1181.072271414339</v>
@@ -6177,22 +6177,22 @@
         <v>1194.871622233432</v>
       </c>
       <c r="T25" t="n">
-        <v>1142.036178720923</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U25" t="n">
-        <v>852.8909017503795</v>
+        <v>1096.85516755123</v>
       </c>
       <c r="V25" t="n">
-        <v>598.2064135444926</v>
+        <v>842.1706793453433</v>
       </c>
       <c r="W25" t="n">
-        <v>308.789243507532</v>
+        <v>842.1706793453433</v>
       </c>
       <c r="X25" t="n">
-        <v>80.79969260951469</v>
+        <v>842.1706793453433</v>
       </c>
       <c r="Y25" t="n">
-        <v>80.79969260951469</v>
+        <v>842.1706793453433</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2021.607859664303</v>
+        <v>1925.95716414514</v>
       </c>
       <c r="C26" t="n">
-        <v>1652.645342723892</v>
+        <v>1556.994647204729</v>
       </c>
       <c r="D26" t="n">
-        <v>1294.379644117141</v>
+        <v>1198.728948597978</v>
       </c>
       <c r="E26" t="n">
-        <v>908.5913915188969</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="F26" t="n">
-        <v>497.6054867292893</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="G26" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1349018799592</v>
       </c>
       <c r="H26" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I26" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J26" t="n">
-        <v>292.8966667652711</v>
+        <v>292.8966667652713</v>
       </c>
       <c r="K26" t="n">
-        <v>731.5198548037615</v>
+        <v>731.5198548037619</v>
       </c>
       <c r="L26" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M26" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N26" t="n">
         <v>2684.816511547416</v>
@@ -6244,34 +6244,34 @@
         <v>3278.543978195641</v>
       </c>
       <c r="P26" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q26" t="n">
         <v>4022.623720931972</v>
       </c>
       <c r="R26" t="n">
-        <v>4039.984630475734</v>
+        <v>4039.984630475735</v>
       </c>
       <c r="S26" t="n">
-        <v>4039.984630475734</v>
+        <v>4039.984630475735</v>
       </c>
       <c r="T26" t="n">
-        <v>4039.984630475734</v>
+        <v>3826.419169654172</v>
       </c>
       <c r="U26" t="n">
-        <v>3786.315486232389</v>
+        <v>3759.993637059839</v>
       </c>
       <c r="V26" t="n">
-        <v>3455.252598888818</v>
+        <v>3428.930749716268</v>
       </c>
       <c r="W26" t="n">
-        <v>3171.812789965317</v>
+        <v>3076.162094446154</v>
       </c>
       <c r="X26" t="n">
-        <v>2798.347031704237</v>
+        <v>2702.696336185074</v>
       </c>
       <c r="Y26" t="n">
-        <v>2408.207699728425</v>
+        <v>2312.557004209262</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>121.5098916267572</v>
       </c>
       <c r="I27" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J27" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694063</v>
       </c>
       <c r="K27" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L27" t="n">
-        <v>1103.20572918323</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M27" t="n">
-        <v>1320.171026546506</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N27" t="n">
-        <v>1557.287394646345</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O27" t="n">
         <v>1941.759203997143</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="C28" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="D28" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="E28" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="F28" t="n">
-        <v>80.79969260951469</v>
+        <v>249.2800476648949</v>
       </c>
       <c r="G28" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="H28" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I28" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J28" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="K28" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L28" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991341</v>
       </c>
       <c r="M28" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N28" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O28" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P28" t="n">
         <v>1181.072271414339</v>
@@ -6414,22 +6414,22 @@
         <v>1194.871622233432</v>
       </c>
       <c r="T28" t="n">
-        <v>969.782882601625</v>
+        <v>969.7828826016253</v>
       </c>
       <c r="U28" t="n">
-        <v>680.6376056310814</v>
+        <v>805.8080108910624</v>
       </c>
       <c r="V28" t="n">
-        <v>425.9531174251946</v>
+        <v>805.8080108910624</v>
       </c>
       <c r="W28" t="n">
-        <v>136.535947388234</v>
+        <v>805.8080108910624</v>
       </c>
       <c r="X28" t="n">
-        <v>80.79969260951469</v>
+        <v>577.8184599930451</v>
       </c>
       <c r="Y28" t="n">
-        <v>80.79969260951469</v>
+        <v>577.8184599930451</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2336.943068934748</v>
+        <v>2112.179310757208</v>
       </c>
       <c r="C29" t="n">
-        <v>1967.980551994336</v>
+        <v>1743.216793816797</v>
       </c>
       <c r="D29" t="n">
-        <v>1609.714853387586</v>
+        <v>1384.951095210046</v>
       </c>
       <c r="E29" t="n">
-        <v>1223.926600789341</v>
+        <v>999.162842611802</v>
       </c>
       <c r="F29" t="n">
-        <v>812.9406959997339</v>
+        <v>588.1769378221945</v>
       </c>
       <c r="G29" t="n">
-        <v>396.1349018799592</v>
+        <v>504.9565438423272</v>
       </c>
       <c r="H29" t="n">
-        <v>80.79969260951469</v>
+        <v>189.6213345718827</v>
       </c>
       <c r="I29" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J29" t="n">
         <v>292.8966667652712</v>
       </c>
       <c r="K29" t="n">
-        <v>731.519854803762</v>
+        <v>731.5198548037615</v>
       </c>
       <c r="L29" t="n">
         <v>1327.947332823146</v>
@@ -6478,37 +6478,37 @@
         <v>2684.816511547416</v>
       </c>
       <c r="O29" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P29" t="n">
         <v>3747.602251701951</v>
       </c>
       <c r="Q29" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R29" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="S29" t="n">
-        <v>3890.195386405609</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="T29" t="n">
-        <v>3890.195386405609</v>
+        <v>3826.419169654172</v>
       </c>
       <c r="U29" t="n">
-        <v>3636.526242162264</v>
+        <v>3572.750025410827</v>
       </c>
       <c r="V29" t="n">
-        <v>3487.147999235761</v>
+        <v>3241.687138067256</v>
       </c>
       <c r="W29" t="n">
-        <v>3487.147999235761</v>
+        <v>2888.918482797142</v>
       </c>
       <c r="X29" t="n">
-        <v>3113.682240974681</v>
+        <v>2888.918482797142</v>
       </c>
       <c r="Y29" t="n">
-        <v>2723.54290899887</v>
+        <v>2498.77915082133</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G30" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H30" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I30" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J30" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694064</v>
       </c>
       <c r="K30" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L30" t="n">
-        <v>1103.20572918323</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M30" t="n">
-        <v>1320.171026546506</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N30" t="n">
-        <v>1557.287394646345</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O30" t="n">
         <v>1941.759203997143</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.79969260951469</v>
+        <v>418.2162305928018</v>
       </c>
       <c r="C31" t="n">
-        <v>80.79969260951469</v>
+        <v>249.2800476648949</v>
       </c>
       <c r="D31" t="n">
-        <v>80.79969260951469</v>
+        <v>249.2800476648949</v>
       </c>
       <c r="E31" t="n">
-        <v>80.79969260951469</v>
+        <v>249.2800476648949</v>
       </c>
       <c r="F31" t="n">
-        <v>80.79969260951469</v>
+        <v>249.2800476648949</v>
       </c>
       <c r="G31" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="H31" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I31" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J31" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="K31" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L31" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991342</v>
       </c>
       <c r="M31" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N31" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O31" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P31" t="n">
         <v>1181.072271414339</v>
@@ -6648,25 +6648,25 @@
         <v>1194.871622233432</v>
       </c>
       <c r="S31" t="n">
-        <v>989.6357123284391</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="T31" t="n">
-        <v>764.5469726966325</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U31" t="n">
-        <v>563.4737317134189</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="V31" t="n">
-        <v>308.789243507532</v>
+        <v>940.1871340275451</v>
       </c>
       <c r="W31" t="n">
-        <v>308.789243507532</v>
+        <v>940.1871340275451</v>
       </c>
       <c r="X31" t="n">
-        <v>80.79969260951469</v>
+        <v>820.6572745665717</v>
       </c>
       <c r="Y31" t="n">
-        <v>80.79969260951469</v>
+        <v>599.8646954230416</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>396.1349018799592</v>
       </c>
       <c r="H32" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I32" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J32" t="n">
         <v>292.8966667652712</v>
       </c>
       <c r="K32" t="n">
-        <v>731.5198548037616</v>
+        <v>731.519854803762</v>
       </c>
       <c r="L32" t="n">
         <v>1327.947332823146</v>
@@ -6712,31 +6712,31 @@
         <v>2008.194366864603</v>
       </c>
       <c r="N32" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O32" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P32" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q32" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R32" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="S32" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="T32" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="U32" t="n">
-        <v>4039.984630475735</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="V32" t="n">
-        <v>3708.921743132164</v>
+        <v>3839.916654505876</v>
       </c>
       <c r="W32" t="n">
         <v>3487.147999235761</v>
@@ -6770,28 +6770,28 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G33" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H33" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I33" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J33" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694064</v>
       </c>
       <c r="K33" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L33" t="n">
-        <v>1103.20572918323</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M33" t="n">
-        <v>1509.947478727291</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N33" t="n">
-        <v>1747.063846827129</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O33" t="n">
         <v>1941.759203997143</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>498.7172477344246</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="C34" t="n">
-        <v>498.7172477344246</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="D34" t="n">
-        <v>498.7172477344246</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="E34" t="n">
-        <v>498.7172477344246</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="F34" t="n">
-        <v>354.6375019497204</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="G34" t="n">
-        <v>354.6375019497204</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="H34" t="n">
-        <v>201.5074694890603</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I34" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J34" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="K34" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L34" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991342</v>
       </c>
       <c r="M34" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N34" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O34" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P34" t="n">
         <v>1181.072271414339</v>
@@ -6888,22 +6888,22 @@
         <v>1194.871622233432</v>
       </c>
       <c r="T34" t="n">
-        <v>969.782882601625</v>
+        <v>1142.036178720923</v>
       </c>
       <c r="U34" t="n">
-        <v>969.782882601625</v>
+        <v>852.8909017503796</v>
       </c>
       <c r="V34" t="n">
-        <v>969.782882601625</v>
+        <v>598.2064135444928</v>
       </c>
       <c r="W34" t="n">
-        <v>680.3657125646644</v>
+        <v>308.7892435075321</v>
       </c>
       <c r="X34" t="n">
-        <v>680.3657125646644</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="Y34" t="n">
-        <v>680.3657125646644</v>
+        <v>80.79969260951472</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2133.552656591136</v>
+        <v>1925.95716414514</v>
       </c>
       <c r="C35" t="n">
-        <v>1764.590139650724</v>
+        <v>1556.994647204729</v>
       </c>
       <c r="D35" t="n">
-        <v>1718.536495349954</v>
+        <v>1198.728948597978</v>
       </c>
       <c r="E35" t="n">
-        <v>1332.748242751709</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="F35" t="n">
-        <v>921.7623379621018</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="G35" t="n">
-        <v>504.9565438423272</v>
+        <v>396.1349018799592</v>
       </c>
       <c r="H35" t="n">
-        <v>189.6213345718827</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I35" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J35" t="n">
-        <v>292.8966667652712</v>
+        <v>292.8966667652713</v>
       </c>
       <c r="K35" t="n">
-        <v>731.519854803762</v>
+        <v>731.5198548037619</v>
       </c>
       <c r="L35" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M35" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N35" t="n">
         <v>2684.816511547416</v>
@@ -6955,7 +6955,7 @@
         <v>3278.543978195641</v>
       </c>
       <c r="P35" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q35" t="n">
         <v>4022.623720931972</v>
@@ -6964,25 +6964,25 @@
         <v>4039.984630475735</v>
       </c>
       <c r="S35" t="n">
-        <v>3890.195386405609</v>
+        <v>4039.984630475735</v>
       </c>
       <c r="T35" t="n">
-        <v>3890.195386405609</v>
+        <v>3826.419169654172</v>
       </c>
       <c r="U35" t="n">
-        <v>3636.526242162264</v>
+        <v>3572.750025410827</v>
       </c>
       <c r="V35" t="n">
-        <v>3636.526242162264</v>
+        <v>3241.687138067256</v>
       </c>
       <c r="W35" t="n">
-        <v>3283.757586892149</v>
+        <v>2888.918482797142</v>
       </c>
       <c r="X35" t="n">
-        <v>2910.29182863107</v>
+        <v>2702.696336185074</v>
       </c>
       <c r="Y35" t="n">
-        <v>2520.152496655258</v>
+        <v>2312.557004209262</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>121.5098916267572</v>
       </c>
       <c r="I36" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J36" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694063</v>
       </c>
       <c r="K36" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L36" t="n">
-        <v>1103.20572918323</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M36" t="n">
-        <v>1320.171026546506</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N36" t="n">
-        <v>1557.287394646345</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O36" t="n">
         <v>1941.759203997143</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.538916617725</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="C37" t="n">
-        <v>375.6027336898181</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="D37" t="n">
-        <v>375.6027336898181</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="E37" t="n">
-        <v>227.689640107425</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="F37" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="G37" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="H37" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I37" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J37" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="K37" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L37" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991341</v>
       </c>
       <c r="M37" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N37" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O37" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P37" t="n">
         <v>1181.072271414339</v>
@@ -7122,25 +7122,25 @@
         <v>1194.871622233432</v>
       </c>
       <c r="S37" t="n">
-        <v>989.6357123284391</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="T37" t="n">
-        <v>989.6357123284391</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U37" t="n">
-        <v>989.6357123284391</v>
+        <v>905.7263452628883</v>
       </c>
       <c r="V37" t="n">
-        <v>765.3314957612552</v>
+        <v>651.0418570570015</v>
       </c>
       <c r="W37" t="n">
-        <v>765.3314957612552</v>
+        <v>361.6246870200409</v>
       </c>
       <c r="X37" t="n">
-        <v>765.3314957612552</v>
+        <v>133.6351361220235</v>
       </c>
       <c r="Y37" t="n">
-        <v>544.538916617725</v>
+        <v>133.6351361220235</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2205.948157561036</v>
+        <v>2336.943068934748</v>
       </c>
       <c r="C38" t="n">
-        <v>1836.985640620624</v>
+        <v>1967.980551994336</v>
       </c>
       <c r="D38" t="n">
-        <v>1478.719942013874</v>
+        <v>1609.714853387586</v>
       </c>
       <c r="E38" t="n">
-        <v>1092.931689415629</v>
+        <v>1223.926600789341</v>
       </c>
       <c r="F38" t="n">
-        <v>681.9457846260218</v>
+        <v>812.9406959997339</v>
       </c>
       <c r="G38" t="n">
-        <v>265.1399905062472</v>
+        <v>396.1349018799592</v>
       </c>
       <c r="H38" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I38" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J38" t="n">
-        <v>292.8966667652711</v>
+        <v>292.8966667652712</v>
       </c>
       <c r="K38" t="n">
-        <v>731.5198548037615</v>
+        <v>731.519854803762</v>
       </c>
       <c r="L38" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M38" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N38" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O38" t="n">
-        <v>3278.54397819564</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P38" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q38" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R38" t="n">
-        <v>4039.984630475734</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="S38" t="n">
-        <v>4039.984630475734</v>
+        <v>4039.984630475736</v>
       </c>
       <c r="T38" t="n">
-        <v>4039.984630475734</v>
+        <v>3839.916654505876</v>
       </c>
       <c r="U38" t="n">
-        <v>4039.984630475734</v>
+        <v>3839.916654505876</v>
       </c>
       <c r="V38" t="n">
-        <v>3708.921743132164</v>
+        <v>3839.916654505876</v>
       </c>
       <c r="W38" t="n">
-        <v>3356.153087862049</v>
+        <v>3487.147999235761</v>
       </c>
       <c r="X38" t="n">
-        <v>2982.687329600969</v>
+        <v>3113.682240974681</v>
       </c>
       <c r="Y38" t="n">
-        <v>2592.547997625158</v>
+        <v>2723.54290899887</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>358.2592392346247</v>
       </c>
       <c r="G39" t="n">
-        <v>220.9687182845825</v>
+        <v>220.9687182845826</v>
       </c>
       <c r="H39" t="n">
         <v>121.5098916267572</v>
       </c>
       <c r="I39" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J39" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694064</v>
       </c>
       <c r="K39" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L39" t="n">
-        <v>1103.20572918323</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M39" t="n">
-        <v>1781.219039659006</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N39" t="n">
-        <v>2018.335407758845</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O39" t="n">
-        <v>2213.030764928859</v>
+        <v>1941.759203997143</v>
       </c>
       <c r="P39" t="n">
-        <v>2601.940982340721</v>
+        <v>2393.96446748223</v>
       </c>
       <c r="Q39" t="n">
         <v>2643.55394115039</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>227.689640107425</v>
+        <v>396.625823035332</v>
       </c>
       <c r="C40" t="n">
-        <v>227.689640107425</v>
+        <v>227.6896401074251</v>
       </c>
       <c r="D40" t="n">
-        <v>227.689640107425</v>
+        <v>227.6896401074251</v>
       </c>
       <c r="E40" t="n">
-        <v>227.689640107425</v>
+        <v>227.6896401074251</v>
       </c>
       <c r="F40" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="G40" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="H40" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="I40" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="J40" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951472</v>
       </c>
       <c r="K40" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L40" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991342</v>
       </c>
       <c r="M40" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N40" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O40" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P40" t="n">
         <v>1181.072271414339</v>
@@ -7356,28 +7356,28 @@
         <v>1194.871622233432</v>
       </c>
       <c r="R40" t="n">
-        <v>1194.871622233432</v>
+        <v>1070.081109033956</v>
       </c>
       <c r="S40" t="n">
-        <v>1194.871622233432</v>
+        <v>1070.081109033956</v>
       </c>
       <c r="T40" t="n">
-        <v>1194.871622233432</v>
+        <v>1070.081109033956</v>
       </c>
       <c r="U40" t="n">
-        <v>999.7808492482899</v>
+        <v>914.0325439703099</v>
       </c>
       <c r="V40" t="n">
-        <v>745.096361042403</v>
+        <v>914.0325439703099</v>
       </c>
       <c r="W40" t="n">
-        <v>455.6791910054424</v>
+        <v>624.6153739333494</v>
       </c>
       <c r="X40" t="n">
-        <v>227.689640107425</v>
+        <v>396.625823035332</v>
       </c>
       <c r="Y40" t="n">
-        <v>227.689640107425</v>
+        <v>396.625823035332</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1842.593452669347</v>
+        <v>1718.536495349954</v>
       </c>
       <c r="C41" t="n">
-        <v>1473.630935728936</v>
+        <v>1718.536495349954</v>
       </c>
       <c r="D41" t="n">
-        <v>1473.630935728936</v>
+        <v>1718.536495349954</v>
       </c>
       <c r="E41" t="n">
-        <v>1223.926600789341</v>
+        <v>1332.748242751709</v>
       </c>
       <c r="F41" t="n">
-        <v>812.9406959997339</v>
+        <v>921.7623379621018</v>
       </c>
       <c r="G41" t="n">
-        <v>396.1349018799592</v>
+        <v>504.9565438423272</v>
       </c>
       <c r="H41" t="n">
-        <v>80.79969260951469</v>
+        <v>189.6213345718827</v>
       </c>
       <c r="I41" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J41" t="n">
-        <v>292.8966667652712</v>
+        <v>292.8966667652713</v>
       </c>
       <c r="K41" t="n">
-        <v>731.519854803762</v>
+        <v>731.5198548037617</v>
       </c>
       <c r="L41" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M41" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N41" t="n">
-        <v>2684.816511547416</v>
+        <v>2684.816511547417</v>
       </c>
       <c r="O41" t="n">
-        <v>3278.543978195641</v>
+        <v>3278.543978195642</v>
       </c>
       <c r="P41" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q41" t="n">
-        <v>4022.623720931972</v>
+        <v>4022.623720931973</v>
       </c>
       <c r="R41" t="n">
         <v>4039.984630475735</v>
@@ -7444,19 +7444,19 @@
         <v>3676.629925584046</v>
       </c>
       <c r="U41" t="n">
-        <v>3676.629925584046</v>
+        <v>3422.960781340701</v>
       </c>
       <c r="V41" t="n">
-        <v>3345.567038240475</v>
+        <v>3091.89789399713</v>
       </c>
       <c r="W41" t="n">
-        <v>2992.798382970361</v>
+        <v>2739.129238727016</v>
       </c>
       <c r="X41" t="n">
-        <v>2619.332624709281</v>
+        <v>2495.275667389887</v>
       </c>
       <c r="Y41" t="n">
-        <v>2229.193292733469</v>
+        <v>2105.136335414075</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>121.5098916267572</v>
       </c>
       <c r="I42" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J42" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694063</v>
       </c>
       <c r="K42" t="n">
-        <v>566.7366696748351</v>
+        <v>180.0859600453776</v>
       </c>
       <c r="L42" t="n">
-        <v>1103.20572918323</v>
+        <v>649.9869870260428</v>
       </c>
       <c r="M42" t="n">
-        <v>1320.171026546506</v>
+        <v>1328.000297501819</v>
       </c>
       <c r="N42" t="n">
-        <v>1557.287394646345</v>
+        <v>1565.116665601658</v>
       </c>
       <c r="O42" t="n">
-        <v>1941.759203997143</v>
+        <v>2149.735718855634</v>
       </c>
       <c r="P42" t="n">
-        <v>2393.96446748223</v>
+        <v>2601.940982340721</v>
       </c>
       <c r="Q42" t="n">
         <v>2643.55394115039</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>80.79969260951469</v>
+        <v>503.0134082227014</v>
       </c>
       <c r="C43" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="D43" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="E43" t="n">
-        <v>80.79969260951469</v>
+        <v>396.1699951628053</v>
       </c>
       <c r="F43" t="n">
-        <v>80.79969260951469</v>
+        <v>249.2800476648949</v>
       </c>
       <c r="G43" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="H43" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I43" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J43" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="K43" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L43" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991341</v>
       </c>
       <c r="M43" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N43" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O43" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P43" t="n">
         <v>1181.072271414339</v>
@@ -7599,22 +7599,22 @@
         <v>1194.871622233432</v>
       </c>
       <c r="T43" t="n">
-        <v>1142.036178720923</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="U43" t="n">
-        <v>852.8909017503795</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="V43" t="n">
-        <v>598.2064135444926</v>
+        <v>1194.871622233432</v>
       </c>
       <c r="W43" t="n">
-        <v>308.789243507532</v>
+        <v>905.4544521964713</v>
       </c>
       <c r="X43" t="n">
-        <v>80.79969260951469</v>
+        <v>905.4544521964713</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.79969260951469</v>
+        <v>684.6618730529411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2445.764710897116</v>
+        <v>2021.607859664303</v>
       </c>
       <c r="C44" t="n">
-        <v>2076.802193956704</v>
+        <v>1652.645342723892</v>
       </c>
       <c r="D44" t="n">
-        <v>1718.536495349954</v>
+        <v>1294.379644117141</v>
       </c>
       <c r="E44" t="n">
-        <v>1332.748242751709</v>
+        <v>908.5913915188969</v>
       </c>
       <c r="F44" t="n">
-        <v>921.7623379621018</v>
+        <v>497.6054867292893</v>
       </c>
       <c r="G44" t="n">
-        <v>504.9565438423272</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="H44" t="n">
-        <v>189.6213345718827</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I44" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J44" t="n">
-        <v>292.8966667652711</v>
+        <v>292.8966667652712</v>
       </c>
       <c r="K44" t="n">
-        <v>731.5198548037615</v>
+        <v>731.5198548037617</v>
       </c>
       <c r="L44" t="n">
         <v>1327.947332823146</v>
       </c>
       <c r="M44" t="n">
-        <v>2008.194366864602</v>
+        <v>2008.194366864603</v>
       </c>
       <c r="N44" t="n">
         <v>2684.816511547416</v>
       </c>
       <c r="O44" t="n">
-        <v>3278.54397819564</v>
+        <v>3278.543978195641</v>
       </c>
       <c r="P44" t="n">
-        <v>3747.60225170195</v>
+        <v>3747.602251701951</v>
       </c>
       <c r="Q44" t="n">
         <v>4022.623720931972</v>
       </c>
       <c r="R44" t="n">
-        <v>4039.984630475734</v>
+        <v>4039.984630475735</v>
       </c>
       <c r="S44" t="n">
-        <v>4039.984630475734</v>
+        <v>3890.195386405609</v>
       </c>
       <c r="T44" t="n">
-        <v>4039.984630475734</v>
+        <v>3890.195386405609</v>
       </c>
       <c r="U44" t="n">
-        <v>4039.984630475734</v>
+        <v>3855.644332579002</v>
       </c>
       <c r="V44" t="n">
-        <v>3948.738296468244</v>
+        <v>3524.581445235431</v>
       </c>
       <c r="W44" t="n">
-        <v>3595.969641198129</v>
+        <v>3171.812789965317</v>
       </c>
       <c r="X44" t="n">
-        <v>3222.50388293705</v>
+        <v>2798.347031704237</v>
       </c>
       <c r="Y44" t="n">
-        <v>2832.364550961238</v>
+        <v>2408.207699728425</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>121.5098916267572</v>
       </c>
       <c r="I45" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J45" t="n">
-        <v>213.4298177239453</v>
+        <v>88.59969273694063</v>
       </c>
       <c r="K45" t="n">
-        <v>566.7366696748351</v>
+        <v>441.9065446878304</v>
       </c>
       <c r="L45" t="n">
-        <v>736.0737873328051</v>
+        <v>903.058485280052</v>
       </c>
       <c r="M45" t="n">
-        <v>1414.087097808581</v>
+        <v>1120.023782643329</v>
       </c>
       <c r="N45" t="n">
-        <v>1651.20346590842</v>
+        <v>1357.140150743167</v>
       </c>
       <c r="O45" t="n">
         <v>1941.759203997143</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.79969260951469</v>
+        <v>163.2308846961037</v>
       </c>
       <c r="C46" t="n">
-        <v>80.79969260951469</v>
+        <v>163.2308846961037</v>
       </c>
       <c r="D46" t="n">
-        <v>80.79969260951469</v>
+        <v>163.2308846961037</v>
       </c>
       <c r="E46" t="n">
-        <v>80.79969260951469</v>
+        <v>163.2308846961037</v>
       </c>
       <c r="F46" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="G46" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="H46" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="I46" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="J46" t="n">
-        <v>80.79969260951469</v>
+        <v>80.79969260951471</v>
       </c>
       <c r="K46" t="n">
         <v>196.2510074266864</v>
       </c>
       <c r="L46" t="n">
-        <v>399.515376499134</v>
+        <v>399.5153764991341</v>
       </c>
       <c r="M46" t="n">
-        <v>624.2182770130034</v>
+        <v>624.2182770130037</v>
       </c>
       <c r="N46" t="n">
-        <v>849.0128612101837</v>
+        <v>849.0128612101839</v>
       </c>
       <c r="O46" t="n">
-        <v>1040.630748259568</v>
+        <v>1040.630748259569</v>
       </c>
       <c r="P46" t="n">
         <v>1181.072271414339</v>
@@ -7836,22 +7836,22 @@
         <v>1194.871622233432</v>
       </c>
       <c r="T46" t="n">
-        <v>1034.539366580619</v>
+        <v>969.7828826016253</v>
       </c>
       <c r="U46" t="n">
-        <v>1034.539366580619</v>
+        <v>680.6376056310817</v>
       </c>
       <c r="V46" t="n">
-        <v>779.8548783747324</v>
+        <v>680.6376056310817</v>
       </c>
       <c r="W46" t="n">
-        <v>490.4377083377717</v>
+        <v>391.2204355941211</v>
       </c>
       <c r="X46" t="n">
-        <v>262.4481574397544</v>
+        <v>163.2308846961037</v>
       </c>
       <c r="Y46" t="n">
-        <v>262.4481574397544</v>
+        <v>163.2308846961037</v>
       </c>
     </row>
   </sheetData>
@@ -8063,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,10 +8543,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.2485028631349</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,25 +8771,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>188.3873391174544</v>
       </c>
       <c r="L12" t="n">
-        <v>142.7203027031465</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>16.62926736273781</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>191.6933860411965</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>62.29630377704535</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>146.0263496268885</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>62.29630377704589</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>191.6933860411965</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,7 +10205,7 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>191.6933860411965</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10427,22 +10427,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M33" t="n">
-        <v>191.6933860411964</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,7 +10679,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>191.6933860411965</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10901,28 +10901,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>254.5283786669826</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298162</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,28 +11138,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>303.5999084067627</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>191.6933860411965</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11375,22 +11375,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>294.7624474083348</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>96.828667594656</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>86.712911084008</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.1324528009118</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>190.2634999037786</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23421,16 +23421,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>49.49167702104891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.7955515048264</v>
       </c>
       <c r="H13" t="n">
         <v>151.5987321360535</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>123.5426080674811</v>
       </c>
       <c r="S13" t="n">
         <v>203.1835508059426</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>67.19361003336638</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>113.2680059969258</v>
       </c>
       <c r="T14" t="n">
-        <v>211.4298062133477</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>267.1110915545866</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23676,7 +23676,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J16" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>123.5426080674811</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>203.1835508059426</v>
       </c>
       <c r="T16" t="n">
-        <v>18.96998785703548</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>68.61078722034281</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>129.6849622599736</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>312.1818571777401</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>107.7334255427443</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>148.2913516294244</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1324528009118</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>100.6044572557831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.7955515048264</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.5987321360535</v>
       </c>
       <c r="I19" t="n">
         <v>119.5006991107501</v>
       </c>
       <c r="J19" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>123.5426080674811</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>148.0046585750103</v>
       </c>
       <c r="T19" t="n">
-        <v>207.1479309872934</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>312.1818571777401</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24022,13 +24022,13 @@
         <v>148.2913516294244</v>
       </c>
       <c r="T20" t="n">
-        <v>60.04653116910339</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1324528009118</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>237.4183878027179</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>127.5248911045536</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24150,7 +24150,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J22" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>203.1835508059426</v>
       </c>
       <c r="T22" t="n">
-        <v>170.5307631581051</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24211,13 +24211,13 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>96.61052769567152</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>129.6849622599736</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>107.7334255427443</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>148.2913516294244</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>211.4298062133477</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.1324528009118</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.7955515048264</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>151.5987321360535</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>119.5006991107501</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>203.1835508059426</v>
       </c>
       <c r="T25" t="n">
-        <v>170.5307631581051</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>189.2175340654584</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24454,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>312.1818571777401</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>107.7334255427443</v>
@@ -24496,16 +24496,16 @@
         <v>148.2913516294244</v>
       </c>
       <c r="T26" t="n">
-        <v>211.4298062133477</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>185.371175532522</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>68.63555788314659</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,10 +24612,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7955515048264</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>151.5987321360535</v>
@@ -24624,7 +24624,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J28" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24657,16 +24657,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>123.918701207381</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>170.5307631581051</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>330.2495461385082</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>107.7334255427443</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>148.2913516294244</v>
       </c>
       <c r="T29" t="n">
-        <v>211.4298062133477</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>179.8677979728974</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7955515048264</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>151.5987321360535</v>
@@ -24861,7 +24861,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J31" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>123.5426080674811</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>203.1835508059426</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U31" t="n">
-        <v>87.19131562745685</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>107.3750945226735</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24976,10 +24976,10 @@
         <v>251.1324528009118</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>129.6849622599734</v>
       </c>
       <c r="W32" t="n">
-        <v>129.6849622599743</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,19 +25086,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>2.782099696074113</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.7955515048264</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>151.5987321360535</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>119.5006991107501</v>
       </c>
       <c r="J34" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25128,19 +25128,19 @@
         <v>203.1835508059426</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>170.5307631581051</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25159,13 +25159,13 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>309.08993376292</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>107.7334255427443</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>148.2913516294244</v>
       </c>
       <c r="T35" t="n">
-        <v>211.4298062133477</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>185.371175532522</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>127.5248911045535</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.7955515048264</v>
@@ -25335,7 +25335,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J37" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>123.5426080674811</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>203.1835508059426</v>
       </c>
       <c r="T37" t="n">
         <v>222.8378522354886</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>30.07646892231588</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>129.6849622599749</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>107.7334255427443</v>
@@ -25444,13 +25444,13 @@
         <v>148.2913516294244</v>
       </c>
       <c r="T38" t="n">
-        <v>211.4298062133477</v>
+        <v>13.3625100031862</v>
       </c>
       <c r="U38" t="n">
         <v>251.1324528009118</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25572,7 +25572,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J40" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>123.5426080674811</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>203.1835508059426</v>
@@ -25605,10 +25605,10 @@
         <v>222.8378522354886</v>
       </c>
       <c r="U40" t="n">
-        <v>93.11395894554781</v>
+        <v>131.7657447878284</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>134.7230784820633</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>107.7334255427443</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,7 +25684,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.1324528009118</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>128.3160650547115</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>61.47184216933073</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.7955515048264</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>151.5987321360535</v>
@@ -25809,7 +25809,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J43" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,22 +25839,22 @@
         <v>203.1835508059426</v>
       </c>
       <c r="T43" t="n">
-        <v>170.5307631581051</v>
+        <v>222.8378522354886</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2538242008382</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>312.1818571777401</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>107.7334255427443</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>148.2913516294244</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>211.4298062133477</v>
       </c>
       <c r="U44" t="n">
-        <v>251.1324528009118</v>
+        <v>216.9269095125703</v>
       </c>
       <c r="V44" t="n">
-        <v>237.4183878027193</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>63.81416785720813</v>
       </c>
       <c r="G46" t="n">
         <v>166.7955515048264</v>
@@ -26046,7 +26046,7 @@
         <v>119.5006991107501</v>
       </c>
       <c r="J46" t="n">
-        <v>8.842430864863914</v>
+        <v>8.842430864863871</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26076,13 +26076,13 @@
         <v>203.1835508059426</v>
       </c>
       <c r="T46" t="n">
-        <v>64.10891913920437</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2538242008382</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>735659.1071133744</v>
+        <v>735659.1071133743</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>735659.1071133743</v>
+        <v>735659.1071133742</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>735659.1071133743</v>
+        <v>735659.1071133742</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>735659.1071133742</v>
+        <v>735659.1071133743</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>735659.1071133743</v>
+        <v>735659.1071133742</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>735659.107113374</v>
+        <v>735659.1071133743</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>735659.1071133742</v>
+        <v>735659.1071133743</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>547705.0861648488</v>
@@ -26328,34 +26328,34 @@
         <v>547705.0861648488</v>
       </c>
       <c r="G2" t="n">
-        <v>547705.0861648491</v>
+        <v>547705.0861648489</v>
       </c>
       <c r="H2" t="n">
-        <v>547705.0861648488</v>
+        <v>547705.0861648486</v>
       </c>
       <c r="I2" t="n">
-        <v>547705.0861648488</v>
+        <v>547705.0861648486</v>
       </c>
       <c r="J2" t="n">
         <v>547705.0861648488</v>
       </c>
       <c r="K2" t="n">
-        <v>547705.086164849</v>
+        <v>547705.0861648488</v>
       </c>
       <c r="L2" t="n">
+        <v>547705.0861648486</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547705.0861648486</v>
+      </c>
+      <c r="N2" t="n">
         <v>547705.0861648488</v>
       </c>
-      <c r="M2" t="n">
-        <v>547705.0861648492</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547705.086164849</v>
-      </c>
       <c r="O2" t="n">
-        <v>547705.086164849</v>
+        <v>547705.0861648488</v>
       </c>
       <c r="P2" t="n">
-        <v>547705.0861648489</v>
+        <v>547705.0861648485</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>762192.2480177637</v>
+        <v>762192.2480177638</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910617</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26456,7 +26456,7 @@
         <v>47293.42385674588</v>
       </c>
       <c r="O4" t="n">
-        <v>47293.42385674588</v>
+        <v>47293.42385674587</v>
       </c>
       <c r="P4" t="n">
         <v>47293.42385674588</v>
@@ -26478,40 +26478,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="F5" t="n">
-        <v>75859.40238105235</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="G5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="H5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="I5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="J5" t="n">
-        <v>75859.40238105235</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="K5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="L5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="M5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="N5" t="n">
-        <v>75859.40238105235</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="O5" t="n">
-        <v>75859.40238105236</v>
+        <v>75859.40238105238</v>
       </c>
       <c r="P5" t="n">
-        <v>75859.40238105235</v>
+        <v>75859.40238105238</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177926.1397875164</v>
+        <v>177926.1397875165</v>
       </c>
       <c r="C6" t="n">
         <v>258695.5713190641</v>
       </c>
       <c r="D6" t="n">
-        <v>258695.5713190637</v>
+        <v>258695.5713190638</v>
       </c>
       <c r="E6" t="n">
-        <v>-340498.1263320026</v>
+        <v>-337925.8019148423</v>
       </c>
       <c r="F6" t="n">
-        <v>421694.1216857612</v>
+        <v>424266.4461029216</v>
       </c>
       <c r="G6" t="n">
-        <v>421694.1216857615</v>
+        <v>424266.4461029217</v>
       </c>
       <c r="H6" t="n">
-        <v>421694.1216857611</v>
+        <v>424266.4461029214</v>
       </c>
       <c r="I6" t="n">
-        <v>421694.1216857611</v>
+        <v>424266.4461029214</v>
       </c>
       <c r="J6" t="n">
-        <v>358634.179086655</v>
+        <v>361206.5035038154</v>
       </c>
       <c r="K6" t="n">
-        <v>421694.1216857614</v>
+        <v>424266.4461029216</v>
       </c>
       <c r="L6" t="n">
-        <v>421694.1216857611</v>
+        <v>424266.4461029214</v>
       </c>
       <c r="M6" t="n">
-        <v>230060.764067961</v>
+        <v>232633.0884851208</v>
       </c>
       <c r="N6" t="n">
-        <v>421694.1216857614</v>
+        <v>424266.4461029216</v>
       </c>
       <c r="O6" t="n">
-        <v>421694.1216857614</v>
+        <v>424266.4461029216</v>
       </c>
       <c r="P6" t="n">
-        <v>421694.1216857613</v>
+        <v>424266.4461029213</v>
       </c>
     </row>
   </sheetData>
@@ -26749,37 +26749,37 @@
         <v>662.9190824688624</v>
       </c>
       <c r="F3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="G3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="H3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="I3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="J3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="K3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="L3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="M3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="N3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="O3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
       <c r="P3" t="n">
-        <v>662.9190824688623</v>
+        <v>662.9190824688625</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>768.9818687412745</v>
+        <v>768.9818687412749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776588</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>768.9818687412745</v>
+        <v>768.9818687412748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>768.9818687412745</v>
+        <v>768.9818687412749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>338.8383891407341</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27435,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>276.2335857651836</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>131.8545712076583</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27511,13 +27511,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>34.41993011510641</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27618,16 +27618,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>301.1342590723308</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>323.535651625599</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
         <v>174.288448637476</v>
@@ -27636,7 +27636,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27712,7 +27712,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>104.3983415011524</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>90.08530687814549</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27824,7 +27824,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>115.8205630125936</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>301.251446211517</v>
       </c>
       <c r="H8" t="n">
-        <v>279.1923877335201</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27897,7 +27897,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -27906,7 +27906,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27937,10 +27937,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>11.54007894861608</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27994,13 +27994,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>67.81068582972321</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28019,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>15.96843579630763</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>37.52545250819722</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -31989,34 +31989,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H14" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I14" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J14" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K14" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L14" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M14" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N14" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O14" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P14" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q14" t="n">
         <v>287.7901630832537</v>
@@ -32025,13 +32025,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S14" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T14" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U14" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,43 +32074,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I15" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J15" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K15" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L15" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M15" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N15" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O15" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P15" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q15" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R15" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S15" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T15" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U15" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H16" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I16" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J16" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K16" t="n">
         <v>138.8869815401977</v>
@@ -32165,13 +32165,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M16" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N16" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O16" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P16" t="n">
         <v>144.5815651338646</v>
@@ -32180,16 +32180,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R16" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S16" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T16" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,34 +32226,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H17" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I17" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J17" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K17" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L17" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M17" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N17" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O17" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P17" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q17" t="n">
         <v>287.7901630832537</v>
@@ -32262,13 +32262,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S17" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T17" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U17" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,43 +32311,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I18" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J18" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K18" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L18" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M18" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N18" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O18" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P18" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R18" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S18" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T18" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H19" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I19" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J19" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K19" t="n">
         <v>138.8869815401977</v>
@@ -32402,13 +32402,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M19" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N19" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O19" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P19" t="n">
         <v>144.5815651338646</v>
@@ -32417,16 +32417,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R19" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S19" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T19" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,34 +32463,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H20" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I20" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J20" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K20" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L20" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M20" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N20" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O20" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P20" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q20" t="n">
         <v>287.7901630832537</v>
@@ -32499,13 +32499,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S20" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T20" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U20" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,43 +32548,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I21" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J21" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K21" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L21" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M21" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N21" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O21" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P21" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q21" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R21" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S21" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T21" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H22" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I22" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J22" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K22" t="n">
         <v>138.8869815401977</v>
@@ -32639,13 +32639,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M22" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N22" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O22" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P22" t="n">
         <v>144.5815651338646</v>
@@ -32654,16 +32654,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R22" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S22" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T22" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,34 +32700,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H23" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I23" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J23" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K23" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L23" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M23" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N23" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O23" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P23" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q23" t="n">
         <v>287.7901630832537</v>
@@ -32736,13 +32736,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S23" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T23" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U23" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I24" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J24" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K24" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L24" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M24" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N24" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O24" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P24" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q24" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R24" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S24" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T24" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U24" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H25" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I25" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J25" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K25" t="n">
         <v>138.8869815401977</v>
@@ -32876,13 +32876,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M25" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N25" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O25" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P25" t="n">
         <v>144.5815651338646</v>
@@ -32891,16 +32891,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R25" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S25" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T25" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U25" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,34 +32937,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H26" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I26" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J26" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K26" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L26" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M26" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N26" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O26" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P26" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q26" t="n">
         <v>287.7901630832537</v>
@@ -32973,13 +32973,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S26" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T26" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U26" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,43 +33022,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I27" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J27" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K27" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L27" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M27" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N27" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O27" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P27" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q27" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R27" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S27" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T27" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H28" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I28" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J28" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K28" t="n">
         <v>138.8869815401977</v>
@@ -33113,13 +33113,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M28" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N28" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O28" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P28" t="n">
         <v>144.5815651338646</v>
@@ -33128,16 +33128,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R28" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S28" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T28" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,34 +33174,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H29" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I29" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J29" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K29" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L29" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M29" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N29" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O29" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P29" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q29" t="n">
         <v>287.7901630832537</v>
@@ -33210,13 +33210,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S29" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T29" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U29" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,43 +33259,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I30" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J30" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K30" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L30" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M30" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N30" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O30" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P30" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q30" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R30" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S30" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T30" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U30" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H31" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I31" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J31" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K31" t="n">
         <v>138.8869815401977</v>
@@ -33350,13 +33350,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M31" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N31" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O31" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P31" t="n">
         <v>144.5815651338646</v>
@@ -33365,16 +33365,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R31" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S31" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T31" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U31" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,34 +33411,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H32" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I32" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J32" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K32" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L32" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M32" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N32" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O32" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P32" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q32" t="n">
         <v>287.7901630832537</v>
@@ -33447,13 +33447,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S32" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T32" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U32" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,43 +33496,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I33" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J33" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K33" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L33" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M33" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N33" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O33" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P33" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q33" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R33" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S33" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T33" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U33" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H34" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I34" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J34" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K34" t="n">
         <v>138.8869815401977</v>
@@ -33587,13 +33587,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M34" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N34" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O34" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P34" t="n">
         <v>144.5815651338646</v>
@@ -33602,16 +33602,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R34" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S34" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T34" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U34" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,34 +33648,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H35" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I35" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J35" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K35" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L35" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M35" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N35" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O35" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P35" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q35" t="n">
         <v>287.7901630832537</v>
@@ -33684,13 +33684,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S35" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T35" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U35" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,43 +33733,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I36" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J36" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K36" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L36" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M36" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N36" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O36" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P36" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q36" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R36" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S36" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T36" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U36" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H37" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I37" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J37" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K37" t="n">
         <v>138.8869815401977</v>
@@ -33824,13 +33824,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M37" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N37" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O37" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P37" t="n">
         <v>144.5815651338646</v>
@@ -33839,16 +33839,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R37" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S37" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T37" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U37" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,34 +33885,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H38" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I38" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J38" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K38" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L38" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M38" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N38" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O38" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P38" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q38" t="n">
         <v>287.7901630832537</v>
@@ -33921,13 +33921,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S38" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T38" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U38" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,43 +33970,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I39" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J39" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K39" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L39" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M39" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N39" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O39" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P39" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q39" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R39" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S39" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T39" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U39" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H40" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I40" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J40" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K40" t="n">
         <v>138.8869815401977</v>
@@ -34061,13 +34061,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M40" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N40" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O40" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P40" t="n">
         <v>144.5815651338646</v>
@@ -34076,16 +34076,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R40" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S40" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T40" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U40" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,34 +34122,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H41" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I41" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J41" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K41" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L41" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M41" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N41" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O41" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P41" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q41" t="n">
         <v>287.7901630832537</v>
@@ -34158,13 +34158,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S41" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T41" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U41" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,43 +34207,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I42" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J42" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K42" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L42" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M42" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N42" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O42" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P42" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q42" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R42" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S42" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T42" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U42" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H43" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I43" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J43" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K43" t="n">
         <v>138.8869815401977</v>
@@ -34298,13 +34298,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M43" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N43" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O43" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P43" t="n">
         <v>144.5815651338646</v>
@@ -34313,16 +34313,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R43" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S43" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T43" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U43" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,34 +34359,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.665001336558238</v>
+        <v>2.665001336558239</v>
       </c>
       <c r="H44" t="n">
-        <v>27.29294493802706</v>
+        <v>27.29294493802707</v>
       </c>
       <c r="I44" t="n">
         <v>102.7424640276616</v>
       </c>
       <c r="J44" t="n">
-        <v>226.18865718871</v>
+        <v>226.1886571887101</v>
       </c>
       <c r="K44" t="n">
-        <v>338.9981637652203</v>
+        <v>338.9981637652204</v>
       </c>
       <c r="L44" t="n">
-        <v>420.5571984189145</v>
+        <v>420.5571984189147</v>
       </c>
       <c r="M44" t="n">
-        <v>467.9509159379321</v>
+        <v>467.9509159379322</v>
       </c>
       <c r="N44" t="n">
-        <v>475.5228509854282</v>
+        <v>475.5228509854284</v>
       </c>
       <c r="O44" t="n">
-        <v>449.0227439450272</v>
+        <v>449.0227439450273</v>
       </c>
       <c r="P44" t="n">
-        <v>383.2305234487457</v>
+        <v>383.2305234487458</v>
       </c>
       <c r="Q44" t="n">
         <v>287.7901630832537</v>
@@ -34395,13 +34395,13 @@
         <v>167.4053902075766</v>
       </c>
       <c r="S44" t="n">
-        <v>60.72871795682092</v>
+        <v>60.72871795682094</v>
       </c>
       <c r="T44" t="n">
-        <v>11.66604335078369</v>
+        <v>11.6660433507837</v>
       </c>
       <c r="U44" t="n">
-        <v>0.213200106924659</v>
+        <v>0.2132001069246591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,43 +34444,43 @@
         <v>13.77120584524939</v>
       </c>
       <c r="I45" t="n">
-        <v>49.093535824345</v>
+        <v>49.09353582434501</v>
       </c>
       <c r="J45" t="n">
         <v>134.7164146741676</v>
       </c>
       <c r="K45" t="n">
-        <v>230.2518099929821</v>
+        <v>230.2518099929822</v>
       </c>
       <c r="L45" t="n">
-        <v>309.6019733737833</v>
+        <v>309.6019733737834</v>
       </c>
       <c r="M45" t="n">
-        <v>361.2908999455299</v>
+        <v>361.29089994553</v>
       </c>
       <c r="N45" t="n">
-        <v>370.8531950124629</v>
+        <v>370.853195012463</v>
       </c>
       <c r="O45" t="n">
-        <v>339.2582213838526</v>
+        <v>339.2582213838527</v>
       </c>
       <c r="P45" t="n">
-        <v>272.2846321936729</v>
+        <v>272.284632193673</v>
       </c>
       <c r="Q45" t="n">
-        <v>182.0150658129601</v>
+        <v>182.0150658129602</v>
       </c>
       <c r="R45" t="n">
-        <v>88.53096727763413</v>
+        <v>88.53096727763416</v>
       </c>
       <c r="S45" t="n">
-        <v>26.48549353071349</v>
+        <v>26.4854935307135</v>
       </c>
       <c r="T45" t="n">
-        <v>5.74738336593287</v>
+        <v>5.747383365932872</v>
       </c>
       <c r="U45" t="n">
-        <v>0.09380930412295224</v>
+        <v>0.09380930412295228</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.195427853632374</v>
+        <v>1.195427853632375</v>
       </c>
       <c r="H46" t="n">
         <v>10.62844037138603</v>
       </c>
       <c r="I46" t="n">
-        <v>35.94977581650814</v>
+        <v>35.94977581650816</v>
       </c>
       <c r="J46" t="n">
-        <v>84.51674925180886</v>
+        <v>84.5167492518089</v>
       </c>
       <c r="K46" t="n">
         <v>138.8869815401977</v>
@@ -34535,13 +34535,13 @@
         <v>177.7275192573078</v>
       </c>
       <c r="M46" t="n">
-        <v>187.3887498198457</v>
+        <v>187.3887498198458</v>
       </c>
       <c r="N46" t="n">
-        <v>182.9330641835797</v>
+        <v>182.9330641835798</v>
       </c>
       <c r="O46" t="n">
-        <v>168.9682933479651</v>
+        <v>168.9682933479652</v>
       </c>
       <c r="P46" t="n">
         <v>144.5815651338646</v>
@@ -34550,16 +34550,16 @@
         <v>100.1007814527982</v>
       </c>
       <c r="R46" t="n">
-        <v>53.75078330968839</v>
+        <v>53.7507833096884</v>
       </c>
       <c r="S46" t="n">
         <v>20.83304723102965</v>
       </c>
       <c r="T46" t="n">
-        <v>5.107737192792872</v>
+        <v>5.107737192792873</v>
       </c>
       <c r="U46" t="n">
-        <v>0.06520515565267504</v>
+        <v>0.06520515565267507</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34783,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35023,10 +35023,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N6" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N6" t="n">
-        <v>240.0046611659691</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,10 +35263,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798016</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,25 +35491,25 @@
         <v>7.87878800750093</v>
       </c>
       <c r="K12" t="n">
-        <v>92.41037101862315</v>
+        <v>280.7977101360776</v>
       </c>
       <c r="L12" t="n">
-        <v>313.7678962970557</v>
+        <v>541.8879388973684</v>
       </c>
       <c r="M12" t="n">
-        <v>684.8619297735115</v>
+        <v>219.1568660235116</v>
       </c>
       <c r="N12" t="n">
-        <v>718.8538572726832</v>
+        <v>239.5114829291296</v>
       </c>
       <c r="O12" t="n">
         <v>590.5242962161377</v>
       </c>
       <c r="P12" t="n">
-        <v>138.3102247793427</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q12" t="n">
-        <v>42.03329172693861</v>
+        <v>252.1105794627877</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K14" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L14" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M14" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N14" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O14" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P14" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q14" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R14" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K15" t="n">
-        <v>109.0396383813609</v>
+        <v>356.8756080312018</v>
       </c>
       <c r="L15" t="n">
-        <v>171.0475935939091</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M15" t="n">
-        <v>684.8619297735115</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N15" t="n">
-        <v>718.8538572726832</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O15" t="n">
-        <v>590.5242962161376</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P15" t="n">
-        <v>138.3102247793427</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q15" t="n">
-        <v>42.03329172693859</v>
+        <v>252.1105794627877</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,22 +35810,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L16" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M16" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N16" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O16" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P16" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q16" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K17" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L17" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M17" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N17" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O17" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P17" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q17" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R17" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K18" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L18" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M18" t="n">
-        <v>219.1568660235116</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N18" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O18" t="n">
-        <v>388.3553629806046</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P18" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q18" t="n">
         <v>252.1105794627877</v>
@@ -36047,22 +36047,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L19" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M19" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N19" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O19" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P19" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K20" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L20" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M20" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N20" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O20" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P20" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q20" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R20" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>133.9698233479097</v>
+        <v>133.9698233479098</v>
       </c>
       <c r="K21" t="n">
-        <v>356.8756080312018</v>
+        <v>154.7066747956686</v>
       </c>
       <c r="L21" t="n">
-        <v>171.0475935939091</v>
+        <v>541.8879388973684</v>
       </c>
       <c r="M21" t="n">
-        <v>684.8619297735115</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N21" t="n">
-        <v>718.8538572726832</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O21" t="n">
-        <v>196.6619769394081</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P21" t="n">
-        <v>138.3102247793427</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q21" t="n">
-        <v>188.0596413538271</v>
+        <v>252.1105794627877</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36284,22 +36284,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L22" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M22" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N22" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O22" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P22" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K23" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L23" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M23" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N23" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O23" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P23" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q23" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R23" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K24" t="n">
-        <v>92.41037101862312</v>
+        <v>356.8756080312018</v>
       </c>
       <c r="L24" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M24" t="n">
-        <v>219.1568660235116</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N24" t="n">
-        <v>301.8077867061755</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O24" t="n">
-        <v>590.5242962161376</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P24" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q24" t="n">
         <v>252.1105794627877</v>
@@ -36521,22 +36521,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L25" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M25" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N25" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O25" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P25" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q25" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K26" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L26" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M26" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N26" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O26" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P26" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q26" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R26" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K27" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L27" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M27" t="n">
-        <v>219.1568660235116</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N27" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O27" t="n">
-        <v>388.3553629806046</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P27" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q27" t="n">
         <v>252.1105794627877</v>
@@ -36758,22 +36758,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L28" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M28" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N28" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O28" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P28" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q28" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K29" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L29" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M29" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N29" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O29" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P29" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q29" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R29" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K30" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L30" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M30" t="n">
-        <v>219.1568660235116</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N30" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O30" t="n">
-        <v>388.3553629806046</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P30" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q30" t="n">
         <v>252.1105794627877</v>
@@ -36995,22 +36995,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L31" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M31" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N31" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O31" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P31" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q31" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K32" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L32" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M32" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N32" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O32" t="n">
-        <v>599.7247137860862</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P32" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q32" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R32" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K33" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L33" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M33" t="n">
-        <v>410.850252064708</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N33" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O33" t="n">
-        <v>196.6619769394081</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P33" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q33" t="n">
         <v>252.1105794627877</v>
@@ -37232,22 +37232,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L34" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M34" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N34" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O34" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P34" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q34" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K35" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L35" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M35" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N35" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O35" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P35" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q35" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R35" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K36" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L36" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M36" t="n">
-        <v>219.1568660235116</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N36" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O36" t="n">
-        <v>388.3553629806046</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P36" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q36" t="n">
         <v>252.1105794627877</v>
@@ -37469,22 +37469,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L37" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M37" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N37" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O37" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P37" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K38" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L38" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M38" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N38" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O38" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P38" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q38" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R38" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K39" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L39" t="n">
-        <v>541.8879388973683</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M39" t="n">
-        <v>684.8619297735115</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N39" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O39" t="n">
-        <v>196.6619769394081</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P39" t="n">
-        <v>392.8386034463253</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q39" t="n">
-        <v>42.03329172693859</v>
+        <v>252.1105794627877</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,22 +37706,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L40" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M40" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N40" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O40" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P40" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q40" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K41" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L41" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M41" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N41" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O41" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P41" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q41" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R41" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642612</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K42" t="n">
-        <v>356.8756080312018</v>
+        <v>92.41037101862321</v>
       </c>
       <c r="L42" t="n">
-        <v>541.8879388973683</v>
+        <v>474.6475020006719</v>
       </c>
       <c r="M42" t="n">
-        <v>219.1568660235116</v>
+        <v>684.8619297735115</v>
       </c>
       <c r="N42" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O42" t="n">
-        <v>388.3553629806046</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P42" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q42" t="n">
-        <v>252.1105794627877</v>
+        <v>42.03329172693864</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37943,22 +37943,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L43" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M43" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N43" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O43" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P43" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q43" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>214.2393678340975</v>
       </c>
       <c r="K44" t="n">
-        <v>443.0537252914045</v>
+        <v>443.0537252914046</v>
       </c>
       <c r="L44" t="n">
-        <v>602.4519979993777</v>
+        <v>602.4519979993779</v>
       </c>
       <c r="M44" t="n">
-        <v>687.1182162034919</v>
+        <v>687.118216203492</v>
       </c>
       <c r="N44" t="n">
-        <v>683.4567118008215</v>
+        <v>683.4567118008216</v>
       </c>
       <c r="O44" t="n">
-        <v>599.7247137860859</v>
+        <v>599.724713786086</v>
       </c>
       <c r="P44" t="n">
-        <v>473.7962358649588</v>
+        <v>473.7962358649589</v>
       </c>
       <c r="Q44" t="n">
         <v>277.7994638687089</v>
       </c>
       <c r="R44" t="n">
-        <v>17.53627226642689</v>
+        <v>17.53627226642695</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>133.9698233479097</v>
+        <v>7.87878800750093</v>
       </c>
       <c r="K45" t="n">
         <v>356.8756080312018</v>
       </c>
       <c r="L45" t="n">
-        <v>171.0475935939091</v>
+        <v>465.810041002244</v>
       </c>
       <c r="M45" t="n">
-        <v>684.8619297735115</v>
+        <v>219.1568660235117</v>
       </c>
       <c r="N45" t="n">
-        <v>239.5114829291296</v>
+        <v>239.5114829291297</v>
       </c>
       <c r="O45" t="n">
-        <v>293.4906445340641</v>
+        <v>590.5242962161378</v>
       </c>
       <c r="P45" t="n">
-        <v>456.7729934192798</v>
+        <v>456.7729934192799</v>
       </c>
       <c r="Q45" t="n">
         <v>252.1105794627877</v>
@@ -38180,22 +38180,22 @@
         <v>116.6174897143148</v>
       </c>
       <c r="L46" t="n">
-        <v>205.3175445176239</v>
+        <v>205.317544517624</v>
       </c>
       <c r="M46" t="n">
-        <v>226.9726267816863</v>
+        <v>226.9726267816864</v>
       </c>
       <c r="N46" t="n">
-        <v>227.0652365628083</v>
+        <v>227.0652365628084</v>
       </c>
       <c r="O46" t="n">
-        <v>193.5534212620048</v>
+        <v>193.5534212620049</v>
       </c>
       <c r="P46" t="n">
         <v>141.8601243987581</v>
       </c>
       <c r="Q46" t="n">
-        <v>13.93873820110382</v>
+        <v>13.93873820110385</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
